--- a/data/laser-sys-params.xlsx
+++ b/data/laser-sys-params.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Work\projects\laser-track-analysis\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCA53E2-17DE-4D97-986F-EAA3B3D614CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="16275" windowHeight="10800"/>
+    <workbookView xWindow="195" yWindow="-14820" windowWidth="54435" windowHeight="13665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>Index</t>
   </si>
@@ -75,73 +81,55 @@
     <t>detectorGain</t>
   </si>
   <si>
-    <t xml:space="preserve"> r=0.4, 40 mJ, 50mm</t>
-  </si>
-  <si>
-    <t>r=0.4, 50 mJ, 50mm</t>
-  </si>
-  <si>
-    <t>r=0.4, 80 mJ, 50mm</t>
-  </si>
-  <si>
-    <t>r=0.4, 100 mJ, 50mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> r=0.2, 40 mJ, 50mm</t>
-  </si>
-  <si>
-    <t>r=0.2, 50 mJ, 50mm</t>
-  </si>
-  <si>
-    <t>r=0.2, 80 mJ, 50mm</t>
-  </si>
-  <si>
-    <t>r=0.2, 100 mJ, 50mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> r=0.4, 40 mJ, 35mm</t>
-  </si>
-  <si>
-    <t>r=0.4, 50 mJ, 35mm</t>
-  </si>
-  <si>
-    <t>r=0.4, 80 mJ, 35mm</t>
-  </si>
-  <si>
-    <t>r=0.4, 100 mJ, 35mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> r=0.2, 40 mJ, 35mm</t>
-  </si>
-  <si>
-    <t>r=0.2, 50 mJ, 35mm</t>
-  </si>
-  <si>
-    <t>r=0.2, 80 mJ, 35mm</t>
-  </si>
-  <si>
-    <t>r=0.2, 100 mJ, 35mm</t>
-  </si>
-  <si>
     <t>plot</t>
   </si>
   <si>
-    <t xml:space="preserve"> r=0.4, 20 mJ, 50mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> r=0.2, 20 mJ, 50mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> r=0.4, 20 mJ, 35mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> r=0.2, 20 mJ, 35mm</t>
+    <t xml:space="preserve"> r=0.4, 20 mJ, 25mm</t>
+  </si>
+  <si>
+    <t>r=0.2, 50 mJ, 25mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> r=0.2, 20 mJ, 25mm</t>
+  </si>
+  <si>
+    <t>r=0.4, 50 mJ, 25mm</t>
+  </si>
+  <si>
+    <t>r=0.2, 40 mJ, 25mm</t>
+  </si>
+  <si>
+    <t>r=0.2, 25 mJ, 25mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> r=0.2, 10 mJ, 25mm</t>
+  </si>
+  <si>
+    <t>r=0.4, 40 mJ, 25mm</t>
+  </si>
+  <si>
+    <t>r=0.4, 25 mJ, 25mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> r=0.4, 10 mJ, 25mm</t>
+  </si>
+  <si>
+    <t>r=0.2, 75 mJ, 25mm</t>
+  </si>
+  <si>
+    <t>r=0.2, 100 mJ, 25mm</t>
+  </si>
+  <si>
+    <t>r=0.4, 75 mJ, 25mm</t>
+  </si>
+  <si>
+    <t>r=0.4, 100 mJ, 25mm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -194,6 +182,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -241,7 +232,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -274,9 +265,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -309,6 +317,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -484,99 +509,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.69140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.53515625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.5703125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="19" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="8" width="19" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="18.53515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="19" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.921875" style="2" customWidth="1"/>
+    <col min="18" max="18" width="19" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="18.53515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.15234375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="N1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="R1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -596,10 +602,10 @@
         <v>0.4</v>
       </c>
       <c r="G3" s="2">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H3" s="2">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I3" s="2">
         <v>0.2</v>
@@ -611,37 +617,19 @@
         <v>0.2</v>
       </c>
       <c r="L3" s="2">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="M3" s="2">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="N3" s="2">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="O3" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="P3" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="Q3" s="2">
         <v>0.2</v>
       </c>
-      <c r="R3" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="S3" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="T3" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="U3" s="2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -687,288 +675,198 @@
       <c r="O4" s="2">
         <v>20</v>
       </c>
-      <c r="P4" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>20</v>
-      </c>
-      <c r="R4" s="2">
-        <v>20</v>
-      </c>
-      <c r="S4" s="2">
-        <v>20</v>
-      </c>
-      <c r="T4" s="2">
-        <v>20</v>
-      </c>
-      <c r="U4" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="C6" s="2">
         <v>0.02</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D6" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E6" s="2">
         <v>0.04</v>
       </c>
-      <c r="D6" s="2">
+      <c r="F6" s="2">
         <v>0.05</v>
       </c>
-      <c r="E6" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H6" s="2">
         <v>0.1</v>
       </c>
-      <c r="G6" s="2">
+      <c r="I6" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J6" s="2">
         <v>0.02</v>
       </c>
-      <c r="H6" s="2">
+      <c r="K6" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L6" s="2">
         <v>0.04</v>
       </c>
-      <c r="I6" s="2">
+      <c r="M6" s="2">
         <v>0.05</v>
       </c>
-      <c r="J6" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="K6" s="2">
+      <c r="N6" s="2">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="O6" s="2">
         <v>0.1</v>
       </c>
-      <c r="L6" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0.04</v>
-      </c>
-      <c r="N6" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="O6" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="P6" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="R6" s="2">
-        <v>0.04</v>
-      </c>
-      <c r="S6" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="T6" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="U6" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>1.4999999999999999E-8</v>
+        <v>1E-8</v>
       </c>
       <c r="C7" s="1">
-        <v>1.4999999999999999E-8</v>
+        <v>1E-8</v>
       </c>
       <c r="D7" s="1">
-        <v>1.4999999999999999E-8</v>
+        <v>1E-8</v>
       </c>
       <c r="E7" s="1">
-        <v>1.4999999999999999E-8</v>
+        <v>1E-8</v>
       </c>
       <c r="F7" s="1">
-        <v>1.4999999999999999E-8</v>
+        <v>1E-8</v>
       </c>
       <c r="G7" s="1">
-        <v>1.4999999999999999E-8</v>
+        <v>1E-8</v>
       </c>
       <c r="H7" s="1">
-        <v>1.4999999999999999E-8</v>
+        <v>1E-8</v>
       </c>
       <c r="I7" s="1">
-        <v>1.4999999999999999E-8</v>
+        <v>1E-8</v>
       </c>
       <c r="J7" s="1">
-        <v>1.4999999999999999E-8</v>
+        <v>1E-8</v>
       </c>
       <c r="K7" s="1">
-        <v>1.4999999999999999E-8</v>
+        <v>1E-8</v>
       </c>
       <c r="L7" s="1">
-        <v>1.4999999999999999E-8</v>
+        <v>1E-8</v>
       </c>
       <c r="M7" s="1">
-        <v>1.4999999999999999E-8</v>
+        <v>1E-8</v>
       </c>
       <c r="N7" s="1">
-        <v>1.4999999999999999E-8</v>
+        <v>1E-8</v>
       </c>
       <c r="O7" s="1">
-        <v>1.4999999999999999E-8</v>
-      </c>
-      <c r="P7" s="1">
-        <v>1.4999999999999999E-8</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>1.4999999999999999E-8</v>
-      </c>
-      <c r="R7" s="1">
-        <v>1.4999999999999999E-8</v>
-      </c>
-      <c r="S7" s="1">
-        <v>1.4999999999999999E-8</v>
-      </c>
-      <c r="T7" s="1">
-        <v>1.4999999999999999E-8</v>
-      </c>
-      <c r="U7" s="1">
-        <v>1.4999999999999999E-8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+        <v>1E-8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="2">
-        <v>2.5000000000000001E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="C9" s="2">
-        <v>2.5000000000000001E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="D9" s="2">
-        <v>2.5000000000000001E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="E9" s="2">
-        <v>2.5000000000000001E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="F9" s="2">
-        <v>2.5000000000000001E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="G9" s="2">
-        <v>2.5000000000000001E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="H9" s="2">
-        <v>2.5000000000000001E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="I9" s="2">
-        <v>2.5000000000000001E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="J9" s="2">
-        <v>2.5000000000000001E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="K9" s="2">
-        <v>2.5000000000000001E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="L9" s="2">
-        <v>1.7500000000000002E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="M9" s="2">
-        <v>1.7500000000000002E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="N9" s="2">
-        <v>1.7500000000000002E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="O9" s="2">
-        <v>1.7500000000000002E-2</v>
-      </c>
-      <c r="P9" s="2">
-        <v>1.7500000000000002E-2</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>1.7500000000000002E-2</v>
-      </c>
-      <c r="R9" s="2">
-        <v>1.7500000000000002E-2</v>
-      </c>
-      <c r="S9" s="2">
-        <v>1.7500000000000002E-2</v>
-      </c>
-      <c r="T9" s="2">
-        <v>1.7500000000000002E-2</v>
-      </c>
-      <c r="U9" s="2">
-        <v>1.7500000000000002E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="2">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="C10" s="2">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="D10" s="2">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="E10" s="2">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F10" s="2">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="G10" s="2">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H10" s="2">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="I10" s="2">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="J10" s="2">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="K10" s="2">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="L10" s="2">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="M10" s="2">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="N10" s="2">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="O10" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="P10" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="R10" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="S10" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="T10" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="U10" s="2">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
@@ -1014,26 +912,8 @@
       <c r="O11" s="2">
         <v>1.4</v>
       </c>
-      <c r="P11" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="R11" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="S11" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="T11" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="U11" s="2">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
@@ -1079,156 +959,102 @@
       <c r="O12" s="2">
         <v>0.35</v>
       </c>
-      <c r="P12" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="R12" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="S12" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="T12" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="U12" s="2">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C13" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D13" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E13" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F13" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G13" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H13" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I13" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J13" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="K13" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="L13" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="M13" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="N13" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="O13" s="2">
-        <v>9</v>
-      </c>
-      <c r="P13" s="2">
-        <v>9</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>9</v>
-      </c>
-      <c r="R13" s="2">
-        <v>9</v>
-      </c>
-      <c r="S13" s="2">
-        <v>9</v>
-      </c>
-      <c r="T13" s="2">
-        <v>9</v>
-      </c>
-      <c r="U13" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="2">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="C14" s="2">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="D14" s="2">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="E14" s="2">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="F14" s="2">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="G14" s="2">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H14" s="2">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="I14" s="2">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="J14" s="2">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="K14" s="2">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="L14" s="2">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="M14" s="2">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="N14" s="2">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="O14" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="P14" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="R14" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="S14" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="T14" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="U14" s="2">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -1274,26 +1100,8 @@
       <c r="O15" s="1">
         <v>300000000000</v>
       </c>
-      <c r="P15" s="1">
-        <v>300000000000</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>300000000000</v>
-      </c>
-      <c r="R15" s="1">
-        <v>300000000000</v>
-      </c>
-      <c r="S15" s="1">
-        <v>300000000000</v>
-      </c>
-      <c r="T15" s="1">
-        <v>300000000000</v>
-      </c>
-      <c r="U15" s="1">
-        <v>300000000000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
@@ -1339,91 +1147,55 @@
       <c r="O16" s="2">
         <v>5</v>
       </c>
-      <c r="P16" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>5</v>
-      </c>
-      <c r="R16" s="2">
-        <v>5</v>
-      </c>
-      <c r="S16" s="2">
-        <v>5</v>
-      </c>
-      <c r="T16" s="2">
-        <v>5</v>
-      </c>
-      <c r="U16" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="2">
-        <v>0.03</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C17" s="2">
-        <v>0.03</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D17" s="2">
-        <v>0.03</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E17" s="2">
-        <v>0.03</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F17" s="2">
-        <v>0.03</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="G17" s="2">
-        <v>0.03</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="H17" s="2">
-        <v>0.03</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="I17" s="2">
-        <v>0.03</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="J17" s="2">
-        <v>0.03</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="K17" s="2">
-        <v>0.03</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="L17" s="2">
-        <v>0.03</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="M17" s="2">
-        <v>0.03</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="N17" s="2">
-        <v>0.03</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="O17" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="P17" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="R17" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="S17" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="T17" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="U17" s="2">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
@@ -1469,26 +1241,8 @@
       <c r="O18" s="2">
         <v>1.0640000000000001</v>
       </c>
-      <c r="P18" s="2">
-        <v>1.0640000000000001</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>1.0640000000000001</v>
-      </c>
-      <c r="R18" s="2">
-        <v>1.0640000000000001</v>
-      </c>
-      <c r="S18" s="2">
-        <v>1.0640000000000001</v>
-      </c>
-      <c r="T18" s="2">
-        <v>1.0640000000000001</v>
-      </c>
-      <c r="U18" s="2">
-        <v>1.0640000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
@@ -1534,26 +1288,8 @@
       <c r="O19" s="2">
         <v>0.7</v>
       </c>
-      <c r="P19" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="R19" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="S19" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="T19" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="U19" s="2">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
@@ -1599,26 +1335,8 @@
       <c r="O20" s="2">
         <v>25000</v>
       </c>
-      <c r="P20" s="2">
-        <v>25000</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>25000</v>
-      </c>
-      <c r="R20" s="2">
-        <v>25000</v>
-      </c>
-      <c r="S20" s="2">
-        <v>25000</v>
-      </c>
-      <c r="T20" s="2">
-        <v>25000</v>
-      </c>
-      <c r="U20" s="2">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
@@ -1664,28 +1382,10 @@
       <c r="O21" s="2">
         <v>1</v>
       </c>
-      <c r="P21" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="2">
-        <v>1</v>
-      </c>
-      <c r="R21" s="2">
-        <v>1</v>
-      </c>
-      <c r="S21" s="2">
-        <v>1</v>
-      </c>
-      <c r="T21" s="2">
-        <v>1</v>
-      </c>
-      <c r="U21" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
@@ -1729,48 +1429,18 @@
       <c r="O22" s="2">
         <v>0</v>
       </c>
-      <c r="P22" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="2">
-        <v>0</v>
-      </c>
-      <c r="R22" s="2">
-        <v>0</v>
-      </c>
-      <c r="S22" s="2">
-        <v>0</v>
-      </c>
-      <c r="T22" s="2">
-        <v>0</v>
-      </c>
-      <c r="U22" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B29" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R29" s="2" t="s">
+      <c r="I29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J29" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1781,24 +1451,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
